--- a/Base-Dados-Desafio-DEV-01.xlsx
+++ b/Base-Dados-Desafio-DEV-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agenteinvest-my.sharepoint.com/personal/silvio_000295_agenteinvest_com_br/Documents/TI/Equipe/Desafio Analista de Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agenteinvest-my.sharepoint.com/personal/silvio_000295_agenteinvest_com_br/Documents/TI/Equipe/Desafio Vaga DEV/desafio-dev-main/desafio-dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="177" documentId="8_{82B762CB-491B-4169-9A41-6B17E63B7CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC273609-AEAA-4EF4-A796-96CE042C128A}"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
